--- a/data/sheets/Golds.xlsx
+++ b/data/sheets/Golds.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/28aa9e46087b5738/0-Concordia_Capital/excel_to_https/excel_web_refresh/export/sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{949D2E9F-0FD2-4E47-B9D1-092713073F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B814969-8457-427E-8170-891C3C74FBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{056EECD4-BC1C-4542-BA04-7DE07B0C9534}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5D8CF308-3EEA-42AA-BE5B-60A8F1B2DFAA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Golds" sheetId="2" r:id="rId1"/>
+    <sheet name="Golds" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
@@ -49,7 +49,6 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" localSheetId="0" hidden="1">46064.7990046296</definedName>
     <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">46064.7990046296</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
@@ -1060,14 +1059,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1409,408 +1401,406 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="16" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{8CADA428-6B02-4916-8521-86E0D5FF44D2}"/>
-    <cellStyle name="百分比 2" xfId="2" xr:uid="{3E391296-3D46-4126-81A4-04D198B8AE6C}"/>
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2288,7 +2278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3FCFE91-3BEE-4AAA-8F7A-B4C360AC9F2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD431899-97CC-4B31-AEAF-2BFB87BEF723}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2302,7 +2292,7 @@
       <selection pane="bottomRight" activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" outlineLevelRow="1" outlineLevelCol="3" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2" outlineLevelRow="1" outlineLevelCol="3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="3" hidden="1" customWidth="1" outlineLevel="3"/>
     <col min="2" max="4" width="12.77734375" style="3" hidden="1" customWidth="1" outlineLevel="3"/>
@@ -2358,7 +2348,7 @@
     <col min="78" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:77" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2494,7 +2484,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:77" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:77" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2697,7 +2687,7 @@
       <c r="BX2" s="36"/>
       <c r="BY2" s="36"/>
     </row>
-    <row r="3" spans="1:77" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:77" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
         <v>52</v>
       </c>
@@ -2793,7 +2783,7 @@
       <c r="BX3" s="36"/>
       <c r="BY3" s="36"/>
     </row>
-    <row r="4" spans="1:77" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:77" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="L4" s="21"/>
       <c r="M4" s="37"/>
       <c r="N4" s="39"/>
@@ -2841,7 +2831,7 @@
       <c r="BX4" s="36"/>
       <c r="BY4" s="36"/>
     </row>
-    <row r="5" spans="1:77" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:77" ht="16.8" x14ac:dyDescent="0.25">
       <c r="J5" s="50" t="s">
         <v>81</v>
       </c>
@@ -2905,7 +2895,7 @@
       <c r="BX5" s="36"/>
       <c r="BY5" s="36"/>
     </row>
-    <row r="6" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L6, A$3)</f>
         <v>#NAME?</v>
@@ -3197,7 +3187,7 @@
       </c>
       <c r="BY6" s="36"/>
     </row>
-    <row r="7" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L7, A$3)</f>
         <v>#NAME?</v>
@@ -3489,7 +3479,7 @@
       </c>
       <c r="BY7" s="36"/>
     </row>
-    <row r="8" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L8, A$3)</f>
         <v>#NAME?</v>
@@ -3781,7 +3771,7 @@
       </c>
       <c r="BY8" s="36"/>
     </row>
-    <row r="9" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L9, A$3)</f>
         <v>#NAME?</v>
@@ -4073,7 +4063,7 @@
       </c>
       <c r="BY9" s="36"/>
     </row>
-    <row r="10" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L10, A$3)</f>
         <v>#NAME?</v>
@@ -4365,7 +4355,7 @@
       </c>
       <c r="BY10" s="36"/>
     </row>
-    <row r="11" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L11, A$3)</f>
         <v>#NAME?</v>
@@ -4657,7 +4647,7 @@
       </c>
       <c r="BY11" s="36"/>
     </row>
-    <row r="12" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L12, A$3)</f>
         <v>#NAME?</v>
@@ -4949,7 +4939,7 @@
       </c>
       <c r="BY12" s="36"/>
     </row>
-    <row r="13" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:77" x14ac:dyDescent="0.25">
       <c r="E13" s="94"/>
       <c r="F13" s="94"/>
       <c r="G13" s="94"/>
@@ -5109,7 +5099,7 @@
       <c r="BX13" s="36"/>
       <c r="BY13" s="36"/>
     </row>
-    <row r="14" spans="1:77" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:77" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A14" s="106"/>
       <c r="B14" s="106"/>
       <c r="C14" s="106"/>
@@ -5180,7 +5170,7 @@
       <c r="BX14" s="36"/>
       <c r="BY14" s="36"/>
     </row>
-    <row r="15" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L15, A$3)</f>
         <v>#NAME?</v>
@@ -5474,7 +5464,7 @@
       </c>
       <c r="BY15" s="36"/>
     </row>
-    <row r="16" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="110" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L16, A$3)</f>
         <v>#NAME?</v>
@@ -5766,7 +5756,7 @@
       </c>
       <c r="BY16" s="36"/>
     </row>
-    <row r="17" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L17, A$3)</f>
         <v>#NAME?</v>
@@ -6060,7 +6050,7 @@
       </c>
       <c r="BY17" s="36"/>
     </row>
-    <row r="18" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L18, A$3)</f>
         <v>#NAME?</v>
@@ -6352,7 +6342,7 @@
       </c>
       <c r="BY18" s="36"/>
     </row>
-    <row r="19" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L19, A$3)</f>
         <v>#NAME?</v>
@@ -6644,7 +6634,7 @@
       </c>
       <c r="BY19" s="36"/>
     </row>
-    <row r="20" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L20, A$3)</f>
         <v>#NAME?</v>
@@ -6936,7 +6926,7 @@
       </c>
       <c r="BY20" s="36"/>
     </row>
-    <row r="21" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L21, A$3)</f>
         <v>#NAME?</v>
@@ -7228,7 +7218,7 @@
       </c>
       <c r="BY21" s="36"/>
     </row>
-    <row r="22" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L22, A$3)</f>
         <v>#NAME?</v>
@@ -7520,7 +7510,7 @@
       </c>
       <c r="BY22" s="36"/>
     </row>
-    <row r="23" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L23, A$3)</f>
         <v>#NAME?</v>
@@ -7814,7 +7804,7 @@
       </c>
       <c r="BY23" s="36"/>
     </row>
-    <row r="24" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A24" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L24, A$3)</f>
         <v>#NAME?</v>
@@ -8106,7 +8096,7 @@
       </c>
       <c r="BY24" s="36"/>
     </row>
-    <row r="25" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A25" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L25, A$3)</f>
         <v>#NAME?</v>
@@ -8398,7 +8388,7 @@
       </c>
       <c r="BY25" s="36"/>
     </row>
-    <row r="26" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L26, A$3)</f>
         <v>#NAME?</v>
@@ -8690,7 +8680,7 @@
       </c>
       <c r="BY26" s="36"/>
     </row>
-    <row r="27" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A27" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L27, A$3)</f>
         <v>#NAME?</v>
@@ -8982,7 +8972,7 @@
       </c>
       <c r="BY27" s="36"/>
     </row>
-    <row r="28" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A28" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L28, A$3)</f>
         <v>#NAME?</v>
@@ -9274,7 +9264,7 @@
       </c>
       <c r="BY28" s="36"/>
     </row>
-    <row r="29" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L29, A$3)</f>
         <v>#NAME?</v>
@@ -9566,7 +9556,7 @@
       </c>
       <c r="BY29" s="36"/>
     </row>
-    <row r="30" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A30" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L30, A$3)</f>
         <v>#NAME?</v>
@@ -9858,7 +9848,7 @@
       </c>
       <c r="BY30" s="36"/>
     </row>
-    <row r="31" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L31, A$3)</f>
         <v>#NAME?</v>
@@ -10150,7 +10140,7 @@
       </c>
       <c r="BY31" s="36"/>
     </row>
-    <row r="32" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L32, A$3)</f>
         <v>#NAME?</v>
@@ -10442,7 +10432,7 @@
       </c>
       <c r="BY32" s="36"/>
     </row>
-    <row r="33" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A33" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L33, A$3)</f>
         <v>#NAME?</v>
@@ -10734,7 +10724,7 @@
       </c>
       <c r="BY33" s="36"/>
     </row>
-    <row r="34" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L34, A$3)</f>
         <v>#NAME?</v>
@@ -11026,7 +11016,7 @@
       </c>
       <c r="BY34" s="36"/>
     </row>
-    <row r="35" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A35" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L35, A$3)</f>
         <v>#NAME?</v>
@@ -11318,7 +11308,7 @@
       </c>
       <c r="BY35" s="36"/>
     </row>
-    <row r="36" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A36" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L36, A$3)</f>
         <v>#NAME?</v>
@@ -11610,7 +11600,7 @@
       </c>
       <c r="BY36" s="36"/>
     </row>
-    <row r="37" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A37" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L37, A$3)</f>
         <v>#NAME?</v>
@@ -11904,7 +11894,7 @@
       </c>
       <c r="BY37" s="36"/>
     </row>
-    <row r="38" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:77" x14ac:dyDescent="0.25">
       <c r="E38" s="94"/>
       <c r="F38" s="94"/>
       <c r="G38" s="94"/>
@@ -12064,7 +12054,7 @@
       <c r="BX38" s="36"/>
       <c r="BY38" s="36"/>
     </row>
-    <row r="39" spans="1:77" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:77" ht="16.8" x14ac:dyDescent="0.25">
       <c r="E39" s="94"/>
       <c r="F39" s="94"/>
       <c r="G39" s="94"/>
@@ -12131,7 +12121,7 @@
       <c r="BX39" s="36"/>
       <c r="BY39" s="36"/>
     </row>
-    <row r="40" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A40" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L40, A$3)</f>
         <v>#NAME?</v>
@@ -12423,7 +12413,7 @@
       </c>
       <c r="BY40" s="36"/>
     </row>
-    <row r="41" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A41" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L41, A$3)</f>
         <v>#NAME?</v>
@@ -12715,7 +12705,7 @@
       </c>
       <c r="BY41" s="36"/>
     </row>
-    <row r="42" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A42" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L42, A$3)</f>
         <v>#NAME?</v>
@@ -13007,7 +12997,7 @@
       </c>
       <c r="BY42" s="36"/>
     </row>
-    <row r="43" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A43" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L43, A$3)</f>
         <v>#NAME?</v>
@@ -13299,7 +13289,7 @@
       </c>
       <c r="BY43" s="36"/>
     </row>
-    <row r="44" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A44" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L44, A$3)</f>
         <v>#NAME?</v>
@@ -13591,7 +13581,7 @@
       </c>
       <c r="BY44" s="36"/>
     </row>
-    <row r="45" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A45" s="56"/>
       <c r="B45" s="56"/>
       <c r="C45" s="56"/>
@@ -13858,7 +13848,7 @@
       <c r="BX45" s="36"/>
       <c r="BY45" s="36"/>
     </row>
-    <row r="46" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A46" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L46, A$3)</f>
         <v>#NAME?</v>
@@ -14150,7 +14140,7 @@
       </c>
       <c r="BY46" s="36"/>
     </row>
-    <row r="47" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A47" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L47, A$3)</f>
         <v>#NAME?</v>
@@ -14442,7 +14432,7 @@
       </c>
       <c r="BY47" s="36"/>
     </row>
-    <row r="48" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A48" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L48, A$3)</f>
         <v>#NAME?</v>
@@ -14734,7 +14724,7 @@
       </c>
       <c r="BY48" s="36"/>
     </row>
-    <row r="49" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A49" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L49, A$3)</f>
         <v>#NAME?</v>
@@ -15026,7 +15016,7 @@
       </c>
       <c r="BY49" s="36"/>
     </row>
-    <row r="50" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A50" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L50, A$3)</f>
         <v>#NAME?</v>
@@ -15318,7 +15308,7 @@
       </c>
       <c r="BY50" s="36"/>
     </row>
-    <row r="51" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A51" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L51, A$3)</f>
         <v>#NAME?</v>
@@ -15603,7 +15593,7 @@
       <c r="BX51" s="36"/>
       <c r="BY51" s="36"/>
     </row>
-    <row r="52" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A52" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L52, A$3)</f>
         <v>#NAME?</v>
@@ -15897,7 +15887,7 @@
       </c>
       <c r="BY52" s="36"/>
     </row>
-    <row r="53" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A53" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L53, A$3)</f>
         <v>#NAME?</v>
@@ -16189,7 +16179,7 @@
       </c>
       <c r="BY53" s="36"/>
     </row>
-    <row r="54" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A54" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L54, A$3)</f>
         <v>#NAME?</v>
@@ -16479,7 +16469,7 @@
       <c r="BX54" s="36"/>
       <c r="BY54" s="36"/>
     </row>
-    <row r="55" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A55" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L55, A$3)</f>
         <v>#NAME?</v>
@@ -16771,7 +16761,7 @@
       </c>
       <c r="BY55" s="36"/>
     </row>
-    <row r="56" spans="1:77" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:77" ht="13.8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L56, A$3)</f>
         <v>#NAME?</v>
@@ -17056,7 +17046,7 @@
       <c r="BX56" s="36"/>
       <c r="BY56" s="36"/>
     </row>
-    <row r="57" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A57" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L57, A$3)</f>
         <v>#NAME?</v>
@@ -17348,7 +17338,7 @@
       </c>
       <c r="BY57" s="36"/>
     </row>
-    <row r="58" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A58" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L58, A$3)</f>
         <v>#NAME?</v>
@@ -17640,7 +17630,7 @@
       </c>
       <c r="BY58" s="36"/>
     </row>
-    <row r="59" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A59" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L59, A$3)</f>
         <v>#NAME?</v>
@@ -17932,7 +17922,7 @@
       </c>
       <c r="BY59" s="36"/>
     </row>
-    <row r="60" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A60" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L60, A$3)</f>
         <v>#NAME?</v>
@@ -18224,7 +18214,7 @@
       </c>
       <c r="BY60" s="36"/>
     </row>
-    <row r="61" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A61" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L61, A$3)</f>
         <v>#NAME?</v>
@@ -18516,7 +18506,7 @@
       </c>
       <c r="BY61" s="36"/>
     </row>
-    <row r="62" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A62" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L62, A$3)</f>
         <v>#NAME?</v>
@@ -18808,7 +18798,7 @@
       </c>
       <c r="BY62" s="36"/>
     </row>
-    <row r="63" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A63" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L63, A$3)</f>
         <v>#NAME?</v>
@@ -19100,7 +19090,7 @@
       </c>
       <c r="BY63" s="36"/>
     </row>
-    <row r="64" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A64" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L64, A$3)</f>
         <v>#NAME?</v>
@@ -19392,7 +19382,7 @@
       </c>
       <c r="BY64" s="119"/>
     </row>
-    <row r="65" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A65" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L65, A$3)</f>
         <v>#NAME?</v>
@@ -19684,7 +19674,7 @@
       </c>
       <c r="BY65" s="36"/>
     </row>
-    <row r="66" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A66" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L66, A$3)</f>
         <v>#NAME?</v>
@@ -19976,7 +19966,7 @@
       </c>
       <c r="BY66" s="36"/>
     </row>
-    <row r="67" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A67" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L67, A$3)</f>
         <v>#NAME?</v>
@@ -20268,7 +20258,7 @@
       </c>
       <c r="BY67" s="36"/>
     </row>
-    <row r="68" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A68" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L68, A$3)</f>
         <v>#NAME?</v>
@@ -20560,7 +20550,7 @@
       </c>
       <c r="BY68" s="36"/>
     </row>
-    <row r="69" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A69" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L69, A$3)</f>
         <v>#NAME?</v>
@@ -20852,7 +20842,7 @@
       </c>
       <c r="BY69" s="36"/>
     </row>
-    <row r="70" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A70" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L70, A$3)</f>
         <v>#NAME?</v>
@@ -21144,7 +21134,7 @@
       </c>
       <c r="BY70" s="36"/>
     </row>
-    <row r="71" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A71" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L71, A$3)</f>
         <v>#NAME?</v>
@@ -21436,7 +21426,7 @@
       </c>
       <c r="BY71" s="36"/>
     </row>
-    <row r="72" spans="1:77" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A72" s="56" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L72, A$3)</f>
         <v>#NAME?</v>
@@ -21728,7 +21718,7 @@
       </c>
       <c r="BY72" s="36"/>
     </row>
-    <row r="73" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:77" x14ac:dyDescent="0.25">
       <c r="H73" s="120"/>
       <c r="I73" s="120"/>
       <c r="J73" s="95"/>
@@ -21881,7 +21871,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" spans="1:77" s="122" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:77" s="122" customFormat="1" x14ac:dyDescent="0.25">
       <c r="J74" s="123"/>
       <c r="K74" s="123"/>
       <c r="L74" s="123"/>
